--- a/RecruitmentToyModel/lib/ColumnheadersforAdam.xlsx
+++ b/RecruitmentToyModel/lib/ColumnheadersforAdam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahanb\OneDrive\Documents\RecruitmentToyModel\RecruitmentToyModel\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6A5CA5970150BCE27148770A6CE02A53E4A044F2" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6A5CA5970150BCE27148770A6CE02A53E4A044F2" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="18960" windowHeight="6860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
